--- a/assets/file_format/import_guru.xlsx
+++ b/assets/file_format/import_guru.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\system_ihbs\assets\file_format\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540002C0-00B7-4380-BE56-004BD97D226E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{7B366271-EC89-4AA9-98F4-8912BB4C691B}"/>
+    <workbookView windowWidth="21000" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>NIP</t>
   </si>
@@ -168,31 +160,386 @@
     <t>UNIT</t>
   </si>
   <si>
+    <t>w45ersfs</t>
+  </si>
+  <si>
+    <t>dfgds</t>
+  </si>
+  <si>
     <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>gsdfgsd</t>
+  </si>
+  <si>
+    <t>sdfgdsfg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -200,27 +547,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="SOURCE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -266,7 +914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,26 +947,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,23 +982,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,59 +1123,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E989E0-D979-4CB7-A496-F4E99FCFB93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="IU1" workbookViewId="0">
+      <selection activeCell="JE2" sqref="AV2:JE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="20.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="15.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="22.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="10.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="12.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="24.6666666666667" customWidth="1"/>
+    <col min="24" max="24" width="17.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.4444444444444" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="18" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" customWidth="1"/>
-    <col min="30" max="30" width="11.5546875" customWidth="1"/>
-    <col min="31" max="31" width="23.88671875" customWidth="1"/>
-    <col min="32" max="32" width="13.5546875" customWidth="1"/>
-    <col min="33" max="33" width="20.21875" customWidth="1"/>
-    <col min="34" max="34" width="15.33203125" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" customWidth="1"/>
-    <col min="36" max="36" width="16.21875" customWidth="1"/>
-    <col min="37" max="37" width="24.109375" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="41" width="23.6640625" customWidth="1"/>
-    <col min="42" max="42" width="19.44140625" customWidth="1"/>
-    <col min="43" max="43" width="16.5546875" customWidth="1"/>
-    <col min="44" max="44" width="25.5546875" customWidth="1"/>
-    <col min="46" max="46" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="11.5555555555556" customWidth="1"/>
+    <col min="31" max="31" width="23.8888888888889" customWidth="1"/>
+    <col min="32" max="32" width="13.5555555555556" customWidth="1"/>
+    <col min="33" max="33" width="20.2222222222222" customWidth="1"/>
+    <col min="34" max="34" width="15.3333333333333" customWidth="1"/>
+    <col min="35" max="35" width="18.4444444444444" customWidth="1"/>
+    <col min="36" max="36" width="16.2222222222222" customWidth="1"/>
+    <col min="37" max="37" width="24.1111111111111" customWidth="1"/>
+    <col min="39" max="39" width="14.6666666666667" customWidth="1"/>
+    <col min="40" max="41" width="23.6666666666667" customWidth="1"/>
+    <col min="42" max="42" width="19.4444444444444" customWidth="1"/>
+    <col min="43" max="43" width="16.5555555555556" customWidth="1"/>
+    <col min="44" max="44" width="25.5555555555556" customWidth="1"/>
+    <col min="46" max="46" width="18.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,35 +1314,156 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47">
+      <c r="A2">
+        <v>23424234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{76C1F98C-D9DD-4596-AD9D-8E2132C5FA4E}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Laki-laki,Perempuan,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{5C5C1D66-392A-4346-80CD-3C872B1C9029}">
-      <formula1>"Tenaga Honorer Sekolah,Guru Honorer Sekolah,GTY/PTY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{6C50A04D-C33B-4F8D-9B7A-F214AD23B3BB}">
-      <formula1>"Tenaga Administrasi Sekolah,Guru Mapel,Guru BK,Guru Kelas,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{C047ADD4-8830-41D8-95CE-13295562DC42}">
-      <formula1>"Islam,Kristen,Katolik,Budha,Hindu,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{4A2F4DE4-5C41-451D-AFCA-10083EF7E06E}">
-      <formula1>"Aktif,Tidak Aktif,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2" xr:uid="{DDC0EF15-1BDD-49EC-BF31-410CDDB78618}">
-      <formula1>"Single,Nikah,Duda/Janda,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{2C6B7E49-BF62-4FDB-9655-3B95D99C12DA}">
-      <formula1>"TK,SD,SMP PUTRA,SMP PUTRI,SMA PUTRA,SMA PUTRI,LEMBAGA,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/assets/file_format/import_guru.xlsx
+++ b/assets/file_format/import_guru.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>NIP</t>
   </si>
@@ -160,19 +157,19 @@
     <t>UNIT</t>
   </si>
   <si>
-    <t>w45ersfs</t>
-  </si>
-  <si>
-    <t>dfgds</t>
+    <t>HERAN</t>
   </si>
   <si>
     <t>Laki-laki</t>
   </si>
   <si>
-    <t>gsdfgsd</t>
-  </si>
-  <si>
-    <t>sdfgdsfg</t>
+    <t>KURANG TAU</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>SMP PUTRA</t>
   </si>
 </sst>
 </file>
@@ -182,8 +179,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,21 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +230,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +292,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,60 +322,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,43 +351,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,73 +489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,61 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,30 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +556,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,22 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,157 +634,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,21 +851,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="SOURCE"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,13 +1113,12 @@
   <sheetPr/>
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IU1" workbookViewId="0">
-      <selection activeCell="JE2" sqref="AV2:JE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667"/>
     <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="14.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
@@ -1316,151 +1297,55 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2">
-        <v>23424234</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3223121</v>
+      </c>
+      <c r="B2">
+        <v>133232</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>234234</v>
+      </c>
+      <c r="G2">
+        <v>2342342</v>
+      </c>
+      <c r="AH2" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>51</v>
       </c>
       <c r="AU2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Laki-laki,Perempuan,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+      <formula1>"Single,Nikah,Duda/Janda,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Tenaga Honorer Sekolah,Guru Honorer Sekolah,GTY/PTY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2">
+      <formula1>"TK,SD,SMP PUTRA,SMP PUTRI,SMA PUTRA,SMA PUTRI,LEMBAGA,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"Tenaga Administrasi Sekolah,Guru Mapel,Guru BK,Guru Kelas,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"Islam,Kristen,Katolik,Budha,Hindu,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+      <formula1>"Aktif,Tidak Aktif,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
